--- a/assets/excel_template/AssessmentForm_Template.xlsx
+++ b/assets/excel_template/AssessmentForm_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Onestop\assets\excel_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CB0809-C0CE-4EFB-9903-BD38520D3CCD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8779E1FF-5CDC-4280-9DA2-D378DFB28650}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{B92677B3-39E8-4452-9EB2-DAF089F1EBB3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>SEMESTER:</t>
   </si>
@@ -76,6 +76,15 @@
   </si>
   <si>
     <t>UNITS</t>
+  </si>
+  <si>
+    <t>DAY</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>ROOM</t>
   </si>
 </sst>
 </file>
@@ -136,31 +145,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{227B4853-2C20-48D8-B03D-08326C591269}">
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,69 +650,69 @@
       <c r="W6" s="4"/>
     </row>
     <row r="7" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
     </row>
     <row r="8" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="4" t="str">
         <f>ADDRESS(ROW(),COLUMN(),4,1)</f>
         <v>E8</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="5"/>
+      <c r="J8" s="7"/>
       <c r="K8" s="4" t="str">
         <f>ADDRESS(ROW(),COLUMN(),4,1)</f>
         <v>K8</v>
       </c>
       <c r="L8" s="4"/>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
       <c r="P8" s="4" t="str">
         <f>ADDRESS(ROW(),COLUMN(),4,1)</f>
         <v>P8</v>
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="5" t="s">
+      <c r="S8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="T8" s="5"/>
+      <c r="T8" s="7"/>
       <c r="U8" s="4" t="str">
         <f>ADDRESS(ROW(),COLUMN(),4,1)</f>
         <v>U8</v>
@@ -709,10 +721,10 @@
       <c r="W8" s="4"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="4" t="str">
         <f>ADDRESS(ROW(),COLUMN(),4,1)</f>
         <v>C9</v>
@@ -722,25 +734,25 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J9" s="5"/>
+      <c r="J9" s="7"/>
       <c r="K9" s="4" t="str">
         <f>ADDRESS(ROW(),COLUMN(),4,1)</f>
         <v>K9</v>
       </c>
       <c r="L9" s="4"/>
-      <c r="M9" s="5" t="s">
+      <c r="M9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N9" s="5"/>
-      <c r="O9" s="7" t="str">
+      <c r="N9" s="7"/>
+      <c r="O9" s="6" t="str">
         <f>ADDRESS(ROW(),COLUMN(),4,1)</f>
         <v>O9</v>
       </c>
-      <c r="P9" s="7"/>
-      <c r="S9" s="6" t="s">
+      <c r="P9" s="6"/>
+      <c r="S9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T9" s="4" t="str">
@@ -752,94 +764,169 @@
       <c r="W9" s="4"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="4" t="str">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="9" t="str">
         <f>ADDRESS(ROW(),COLUMN(),4,1)</f>
         <v>D10</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2" t="s">
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2" t="s">
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="2"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="str">
+        <f>ADDRESS(ROW(),COLUMN(),4,1)</f>
+        <v>A14</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="str">
+        <f>ADDRESS(ROW(),COLUMN(),4,1)</f>
+        <v>D14</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="str">
+        <f>ADDRESS(ROW(),COLUMN(),4,1)</f>
+        <v>G14</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4" t="str">
+        <f>ADDRESS(ROW(),COLUMN(),4,1)</f>
+        <v>K14</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4" t="str">
+        <f>ADDRESS(ROW(),COLUMN(),4,1)</f>
+        <v>N14</v>
+      </c>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4" t="str">
+        <f>ADDRESS(ROW(),COLUMN(),4,1)</f>
+        <v>Q14</v>
+      </c>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4" t="str">
+        <f>ADDRESS(ROW(),COLUMN(),4,1)</f>
+        <v>T14</v>
+      </c>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="D10:H11"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="O9:P9"/>
+  <mergeCells count="33">
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="T13:W13"/>
     <mergeCell ref="P8:R8"/>
     <mergeCell ref="S8:T8"/>
     <mergeCell ref="A1:W6"/>
     <mergeCell ref="A7:W7"/>
     <mergeCell ref="U8:W8"/>
-    <mergeCell ref="I9:J9"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
     <mergeCell ref="M8:O8"/>
-    <mergeCell ref="M9:N9"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="E8:G8"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="D10:H11"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="A10:C10"/>
